--- a/tests/resources/cut_down_master_compared.xlsx
+++ b/tests/resources/cut_down_master_compared.xlsx
@@ -427,14 +427,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
@@ -929,6 +929,13 @@
       </c>
       <c r="F23" s="6" t="n">
         <v>4345</v>
+      </c>
+    </row>
+    <row r="24" ht="13.8" customHeight="1" s="7">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>GMPP - IPA ID Number</t>
+        </is>
       </c>
     </row>
     <row r="1047629" ht="12.8" customHeight="1" s="7"/>

--- a/tests/resources/cut_down_master_compared.xlsx
+++ b/tests/resources/cut_down_master_compared.xlsx
@@ -434,13 +434,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="59.57" customWidth="1" style="6" min="1" max="1"/>
-    <col width="8.539999999999999" customWidth="1" style="6" min="2" max="996"/>
+    <col width="8.539999999999999" customWidth="1" style="6" min="2" max="4"/>
+    <col width="10.25" customWidth="1" style="6" min="5" max="5"/>
+    <col width="8.539999999999999" customWidth="1" style="6" min="6" max="996"/>
     <col width="9.140000000000001" customWidth="1" style="6" min="997" max="1023"/>
     <col width="9.140000000000001" customWidth="1" style="6" min="1024" max="1024"/>
   </cols>
@@ -493,11 +495,11 @@
       <c r="D2" s="9" t="n">
         <v>42843</v>
       </c>
-      <c r="E2" s="10" t="n">
-        <v>42829</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <v>42832</v>
+      <c r="E2" s="9" t="n">
+        <v>42844</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>42845</v>
       </c>
       <c r="G2" s="10" t="n"/>
     </row>

--- a/tests/resources/cut_down_master_compared.xlsx
+++ b/tests/resources/cut_down_master_compared.xlsx
@@ -135,6 +135,74 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
